--- a/public/uploads/PTTgasolineFormat.xlsx
+++ b/public/uploads/PTTgasolineFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aukrit.chi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985DB75-EEF2-4B72-BD45-90E3180CD6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2E1CC-B5CA-4DDA-B3C8-9A488400382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91EBE8FA-B884-492D-BCFC-D754A6E43947}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TaxInvoiceDate</t>
   </si>
@@ -69,13 +69,37 @@
   </si>
   <si>
     <t>VATBranch</t>
+  </si>
+  <si>
+    <t>715553000681</t>
+  </si>
+  <si>
+    <t>ปตท.ไอเอสเค บิสซิเนส</t>
+  </si>
+  <si>
+    <t>55 หมู่ที่ 13 ต.ปากแพรก อ.เมือง จ. กาญจนบุรี  71000</t>
+  </si>
+  <si>
+    <t>00034</t>
+  </si>
+  <si>
+    <t>105729169509050000</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,19 +115,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -112,14 +205,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,76 +566,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C190335-4046-4488-90DC-45B5FA226366}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" customWidth="1"/>
-    <col min="9" max="9" width="18.296875" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" customWidth="1"/>
-    <col min="11" max="11" width="17.296875" customWidth="1"/>
+    <col min="1" max="1" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>45787</v>
+      </c>
+      <c r="B2" s="15">
+        <v>45787</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17">
+        <v>554854</v>
+      </c>
+      <c r="I2" s="17">
+        <v>157.01</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>